--- a/roads.xlsx
+++ b/roads.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Documents\Ubuntu\Escuela\SimulacionSuperManzanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{553C80D1-B433-4393-8741-EF2278F3CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EE4AD5-6975-4C20-B9DC-4DECCBC40D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roads" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="9">
   <si>
     <t>IZQUIERDA</t>
   </si>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +405,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -566,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -574,6 +586,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,11 +942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FQ173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA34" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="CX71" sqref="CX71"/>
+    <sheetView tabSelected="1" topLeftCell="BX30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="DA68" sqref="DA68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18967,10 +18981,10 @@
       <c r="CY35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="CZ35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA35" s="1" t="b">
+      <c r="CZ35" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA35" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB35" s="1" t="b">
@@ -19383,10 +19397,10 @@
       <c r="BP36" t="b">
         <v>0</v>
       </c>
-      <c r="BQ36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR36" s="1" t="b">
+      <c r="BQ36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR36" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS36" t="b">
@@ -19488,10 +19502,10 @@
       <c r="CY36" t="b">
         <v>0</v>
       </c>
-      <c r="CZ36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA36" s="1" t="b">
+      <c r="CZ36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB36" t="b">
@@ -19904,10 +19918,10 @@
       <c r="BP37" t="b">
         <v>0</v>
       </c>
-      <c r="BQ37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR37" s="1" t="b">
+      <c r="BQ37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR37" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS37" t="b">
@@ -20009,10 +20023,10 @@
       <c r="CY37" t="b">
         <v>0</v>
       </c>
-      <c r="CZ37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA37" s="1" t="b">
+      <c r="CZ37" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB37" t="b">
@@ -20425,10 +20439,10 @@
       <c r="BP38" t="b">
         <v>0</v>
       </c>
-      <c r="BQ38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR38" s="1" t="b">
+      <c r="BQ38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR38" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS38" t="b">
@@ -20530,10 +20544,10 @@
       <c r="CY38" t="b">
         <v>0</v>
       </c>
-      <c r="CZ38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA38" s="1" t="b">
+      <c r="CZ38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA38" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB38" t="b">
@@ -20946,10 +20960,10 @@
       <c r="BP39" t="b">
         <v>0</v>
       </c>
-      <c r="BQ39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR39" s="1" t="b">
+      <c r="BQ39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR39" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS39" t="b">
@@ -21051,10 +21065,10 @@
       <c r="CY39" t="b">
         <v>0</v>
       </c>
-      <c r="CZ39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA39" s="1" t="b">
+      <c r="CZ39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA39" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB39" t="b">
@@ -21467,10 +21481,10 @@
       <c r="BP40" t="b">
         <v>0</v>
       </c>
-      <c r="BQ40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR40" s="1" t="b">
+      <c r="BQ40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR40" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS40" t="b">
@@ -21572,10 +21586,10 @@
       <c r="CY40" t="b">
         <v>0</v>
       </c>
-      <c r="CZ40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA40" s="1" t="b">
+      <c r="CZ40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB40" t="b">
@@ -21988,10 +22002,10 @@
       <c r="BP41" t="b">
         <v>0</v>
       </c>
-      <c r="BQ41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR41" s="1" t="b">
+      <c r="BQ41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR41" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS41" t="b">
@@ -22093,10 +22107,10 @@
       <c r="CY41" t="b">
         <v>0</v>
       </c>
-      <c r="CZ41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA41" s="1" t="b">
+      <c r="CZ41" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA41" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB41" t="b">
@@ -22509,10 +22523,10 @@
       <c r="BP42" t="b">
         <v>0</v>
       </c>
-      <c r="BQ42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR42" s="1" t="b">
+      <c r="BQ42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR42" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS42" t="b">
@@ -22614,10 +22628,10 @@
       <c r="CY42" t="b">
         <v>0</v>
       </c>
-      <c r="CZ42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA42" s="1" t="b">
+      <c r="CZ42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA42" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB42" t="b">
@@ -23030,10 +23044,10 @@
       <c r="BP43" t="b">
         <v>0</v>
       </c>
-      <c r="BQ43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR43" s="1" t="b">
+      <c r="BQ43" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR43" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS43" t="b">
@@ -23135,10 +23149,10 @@
       <c r="CY43" t="b">
         <v>0</v>
       </c>
-      <c r="CZ43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA43" s="1" t="b">
+      <c r="CZ43" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA43" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB43" t="b">
@@ -23551,10 +23565,10 @@
       <c r="BP44" t="b">
         <v>0</v>
       </c>
-      <c r="BQ44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR44" s="1" t="b">
+      <c r="BQ44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR44" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS44" t="b">
@@ -23656,10 +23670,10 @@
       <c r="CY44" t="b">
         <v>0</v>
       </c>
-      <c r="CZ44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA44" s="1" t="b">
+      <c r="CZ44" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB44" t="b">
@@ -24072,10 +24086,10 @@
       <c r="BP45" t="b">
         <v>0</v>
       </c>
-      <c r="BQ45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR45" s="1" t="b">
+      <c r="BQ45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR45" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS45" t="b">
@@ -24177,10 +24191,10 @@
       <c r="CY45" t="b">
         <v>0</v>
       </c>
-      <c r="CZ45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA45" s="1" t="b">
+      <c r="CZ45" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA45" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB45" t="b">
@@ -24593,10 +24607,10 @@
       <c r="BP46" t="b">
         <v>0</v>
       </c>
-      <c r="BQ46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR46" s="1" t="b">
+      <c r="BQ46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR46" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS46" t="b">
@@ -24698,10 +24712,10 @@
       <c r="CY46" t="b">
         <v>0</v>
       </c>
-      <c r="CZ46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA46" s="1" t="b">
+      <c r="CZ46" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA46" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB46" t="b">
@@ -25114,10 +25128,10 @@
       <c r="BP47" t="b">
         <v>0</v>
       </c>
-      <c r="BQ47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR47" s="1" t="b">
+      <c r="BQ47" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR47" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS47" t="b">
@@ -25219,10 +25233,10 @@
       <c r="CY47" t="b">
         <v>0</v>
       </c>
-      <c r="CZ47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA47" s="1" t="b">
+      <c r="CZ47" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA47" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB47" t="b">
@@ -25635,10 +25649,10 @@
       <c r="BP48" t="b">
         <v>0</v>
       </c>
-      <c r="BQ48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR48" s="1" t="b">
+      <c r="BQ48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR48" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS48" t="b">
@@ -25740,10 +25754,10 @@
       <c r="CY48" t="b">
         <v>0</v>
       </c>
-      <c r="CZ48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA48" s="1" t="b">
+      <c r="CZ48" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA48" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB48" t="b">
@@ -26156,10 +26170,10 @@
       <c r="BP49" t="b">
         <v>0</v>
       </c>
-      <c r="BQ49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR49" s="1" t="b">
+      <c r="BQ49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR49" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS49" t="b">
@@ -26261,10 +26275,10 @@
       <c r="CY49" t="b">
         <v>0</v>
       </c>
-      <c r="CZ49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA49" s="1" t="b">
+      <c r="CZ49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA49" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB49" t="b">
@@ -26677,10 +26691,10 @@
       <c r="BP50" t="b">
         <v>0</v>
       </c>
-      <c r="BQ50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR50" s="1" t="b">
+      <c r="BQ50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR50" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS50" t="b">
@@ -26782,10 +26796,10 @@
       <c r="CY50" t="b">
         <v>0</v>
       </c>
-      <c r="CZ50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA50" s="1" t="b">
+      <c r="CZ50" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB50" t="b">
@@ -27198,10 +27212,10 @@
       <c r="BP51" t="b">
         <v>0</v>
       </c>
-      <c r="BQ51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR51" s="1" t="b">
+      <c r="BQ51" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR51" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS51" t="b">
@@ -27303,10 +27317,10 @@
       <c r="CY51" t="b">
         <v>0</v>
       </c>
-      <c r="CZ51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA51" s="1" t="b">
+      <c r="CZ51" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA51" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB51" t="b">
@@ -27719,10 +27733,10 @@
       <c r="BP52" t="b">
         <v>0</v>
       </c>
-      <c r="BQ52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR52" s="1" t="b">
+      <c r="BQ52" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR52" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS52" t="b">
@@ -27824,10 +27838,10 @@
       <c r="CY52" t="b">
         <v>0</v>
       </c>
-      <c r="CZ52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA52" s="1" t="b">
+      <c r="CZ52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB52" t="b">
@@ -28240,10 +28254,10 @@
       <c r="BP53" t="b">
         <v>0</v>
       </c>
-      <c r="BQ53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR53" s="1" t="b">
+      <c r="BQ53" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR53" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS53" t="b">
@@ -28345,10 +28359,10 @@
       <c r="CY53" t="b">
         <v>0</v>
       </c>
-      <c r="CZ53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA53" s="1" t="b">
+      <c r="CZ53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA53" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB53" t="b">
@@ -28761,10 +28775,10 @@
       <c r="BP54" t="b">
         <v>0</v>
       </c>
-      <c r="BQ54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR54" s="1" t="b">
+      <c r="BQ54" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR54" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS54" t="b">
@@ -28866,10 +28880,10 @@
       <c r="CY54" t="b">
         <v>0</v>
       </c>
-      <c r="CZ54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA54" s="1" t="b">
+      <c r="CZ54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB54" t="b">
@@ -29282,10 +29296,10 @@
       <c r="BP55" t="b">
         <v>0</v>
       </c>
-      <c r="BQ55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR55" s="1" t="b">
+      <c r="BQ55" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR55" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS55" t="b">
@@ -29387,10 +29401,10 @@
       <c r="CY55" t="b">
         <v>0</v>
       </c>
-      <c r="CZ55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA55" s="1" t="b">
+      <c r="CZ55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA55" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB55" t="b">
@@ -29803,10 +29817,10 @@
       <c r="BP56" t="b">
         <v>0</v>
       </c>
-      <c r="BQ56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR56" s="1" t="b">
+      <c r="BQ56" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR56" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS56" t="b">
@@ -29908,10 +29922,10 @@
       <c r="CY56" t="b">
         <v>0</v>
       </c>
-      <c r="CZ56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA56" s="1" t="b">
+      <c r="CZ56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA56" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB56" t="b">
@@ -30324,10 +30338,10 @@
       <c r="BP57" t="b">
         <v>0</v>
       </c>
-      <c r="BQ57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR57" s="1" t="b">
+      <c r="BQ57" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR57" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS57" t="b">
@@ -30429,10 +30443,10 @@
       <c r="CY57" t="b">
         <v>0</v>
       </c>
-      <c r="CZ57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA57" s="1" t="b">
+      <c r="CZ57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA57" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB57" t="b">
@@ -30845,10 +30859,10 @@
       <c r="BP58" t="b">
         <v>0</v>
       </c>
-      <c r="BQ58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR58" s="1" t="b">
+      <c r="BQ58" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR58" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS58" t="b">
@@ -30950,10 +30964,10 @@
       <c r="CY58" t="b">
         <v>0</v>
       </c>
-      <c r="CZ58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA58" s="1" t="b">
+      <c r="CZ58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA58" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB58" t="b">
@@ -31366,10 +31380,10 @@
       <c r="BP59" t="b">
         <v>0</v>
       </c>
-      <c r="BQ59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR59" s="1" t="b">
+      <c r="BQ59" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR59" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS59" t="b">
@@ -31471,10 +31485,10 @@
       <c r="CY59" t="b">
         <v>0</v>
       </c>
-      <c r="CZ59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA59" s="1" t="b">
+      <c r="CZ59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA59" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB59" t="b">
@@ -31887,10 +31901,10 @@
       <c r="BP60" t="b">
         <v>0</v>
       </c>
-      <c r="BQ60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR60" s="1" t="b">
+      <c r="BQ60" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR60" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS60" t="b">
@@ -31992,10 +32006,10 @@
       <c r="CY60" t="b">
         <v>0</v>
       </c>
-      <c r="CZ60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA60" s="1" t="b">
+      <c r="CZ60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA60" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB60" t="b">
@@ -32408,10 +32422,10 @@
       <c r="BP61" t="b">
         <v>0</v>
       </c>
-      <c r="BQ61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR61" s="1" t="b">
+      <c r="BQ61" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR61" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS61" t="b">
@@ -32513,10 +32527,10 @@
       <c r="CY61" t="b">
         <v>0</v>
       </c>
-      <c r="CZ61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA61" s="1" t="b">
+      <c r="CZ61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB61" t="b">
@@ -32929,10 +32943,10 @@
       <c r="BP62" t="b">
         <v>0</v>
       </c>
-      <c r="BQ62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR62" s="1" t="b">
+      <c r="BQ62" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR62" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS62" t="b">
@@ -33034,10 +33048,10 @@
       <c r="CY62" t="b">
         <v>0</v>
       </c>
-      <c r="CZ62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA62" s="1" t="b">
+      <c r="CZ62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB62" t="b">
@@ -33450,10 +33464,10 @@
       <c r="BP63" t="b">
         <v>0</v>
       </c>
-      <c r="BQ63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR63" s="1" t="b">
+      <c r="BQ63" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR63" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS63" t="b">
@@ -33555,10 +33569,10 @@
       <c r="CY63" t="b">
         <v>0</v>
       </c>
-      <c r="CZ63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA63" s="1" t="b">
+      <c r="CZ63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA63" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB63" t="b">
@@ -33971,10 +33985,10 @@
       <c r="BP64" t="b">
         <v>0</v>
       </c>
-      <c r="BQ64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR64" s="1" t="b">
+      <c r="BQ64" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR64" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS64" t="b">
@@ -34076,10 +34090,10 @@
       <c r="CY64" t="b">
         <v>0</v>
       </c>
-      <c r="CZ64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA64" s="1" t="b">
+      <c r="CZ64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB64" t="b">
@@ -34492,10 +34506,10 @@
       <c r="BP65" t="b">
         <v>0</v>
       </c>
-      <c r="BQ65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR65" s="1" t="b">
+      <c r="BQ65" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR65" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS65" t="b">
@@ -34597,10 +34611,10 @@
       <c r="CY65" t="b">
         <v>0</v>
       </c>
-      <c r="CZ65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA65" s="1" t="b">
+      <c r="CZ65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB65" t="b">
@@ -35013,10 +35027,10 @@
       <c r="BP66" t="b">
         <v>0</v>
       </c>
-      <c r="BQ66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR66" s="1" t="b">
+      <c r="BQ66" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR66" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS66" t="b">
@@ -35118,10 +35132,10 @@
       <c r="CY66" t="b">
         <v>0</v>
       </c>
-      <c r="CZ66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA66" s="1" t="b">
+      <c r="CZ66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB66" t="b">
@@ -35534,10 +35548,10 @@
       <c r="BP67" t="b">
         <v>0</v>
       </c>
-      <c r="BQ67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR67" s="1" t="b">
+      <c r="BQ67" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR67" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS67" t="b">
@@ -35639,10 +35653,10 @@
       <c r="CY67" t="b">
         <v>0</v>
       </c>
-      <c r="CZ67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA67" s="1" t="b">
+      <c r="CZ67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA67" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB67" t="b">
@@ -36160,10 +36174,10 @@
       <c r="CY68" t="b">
         <v>0</v>
       </c>
-      <c r="CZ68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA68" s="1" t="b">
+      <c r="CZ68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB68" t="b">
@@ -36477,104 +36491,104 @@
       <c r="AI69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AJ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP69" s="1" t="b">
-        <v>1</v>
+      <c r="AJ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP69" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="BQ69" s="3" t="b">
         <v>1</v>
@@ -36690,101 +36704,101 @@
       <c r="DB69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="DC69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DD69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DE69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DF69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DH69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DI69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DO69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DP69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DQ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DS69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DT69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DU69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DV69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DX69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DY69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EA69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EF69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EG69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EH69" s="1" t="b">
-        <v>1</v>
+      <c r="DC69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DM69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DN69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DO69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DU69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DV69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="ED69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EE69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH69" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="EI69" s="1" t="b">
         <v>1</v>
@@ -36998,104 +37012,104 @@
       <c r="AI70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AJ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP70" s="1" t="b">
-        <v>1</v>
+      <c r="AJ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP70" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="BQ70" s="3" t="b">
         <v>1</v>
@@ -37211,101 +37225,101 @@
       <c r="DB70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="DC70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DD70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DE70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DF70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DH70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DI70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DO70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DP70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DQ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DS70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DT70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DU70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DV70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DX70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DY70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EA70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EF70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EG70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EH70" s="1" t="b">
-        <v>1</v>
+      <c r="DC70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DM70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DN70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DO70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DU70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DV70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="ED70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EE70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH70" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="EI70" s="1" t="b">
         <v>1</v>
@@ -37723,10 +37737,10 @@
       <c r="CY71" t="b">
         <v>0</v>
       </c>
-      <c r="CZ71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA71" s="1" t="b">
+      <c r="CZ71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA71" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB71" t="b">
@@ -38139,10 +38153,10 @@
       <c r="BP72" t="b">
         <v>0</v>
       </c>
-      <c r="BQ72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR72" s="1" t="b">
+      <c r="BQ72" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS72" t="b">
@@ -38244,10 +38258,10 @@
       <c r="CY72" t="b">
         <v>0</v>
       </c>
-      <c r="CZ72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA72" s="1" t="b">
+      <c r="CZ72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA72" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB72" t="b">
@@ -38660,10 +38674,10 @@
       <c r="BP73" t="b">
         <v>0</v>
       </c>
-      <c r="BQ73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR73" s="1" t="b">
+      <c r="BQ73" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR73" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS73" t="b">
@@ -38765,10 +38779,10 @@
       <c r="CY73" t="b">
         <v>0</v>
       </c>
-      <c r="CZ73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA73" s="1" t="b">
+      <c r="CZ73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA73" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB73" t="b">
@@ -39181,10 +39195,10 @@
       <c r="BP74" t="b">
         <v>0</v>
       </c>
-      <c r="BQ74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR74" s="1" t="b">
+      <c r="BQ74" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR74" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS74" t="b">
@@ -39286,10 +39300,10 @@
       <c r="CY74" t="b">
         <v>0</v>
       </c>
-      <c r="CZ74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA74" s="1" t="b">
+      <c r="CZ74" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA74" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB74" t="b">
@@ -39702,10 +39716,10 @@
       <c r="BP75" t="b">
         <v>0</v>
       </c>
-      <c r="BQ75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR75" s="1" t="b">
+      <c r="BQ75" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR75" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS75" t="b">
@@ -39807,10 +39821,10 @@
       <c r="CY75" t="b">
         <v>0</v>
       </c>
-      <c r="CZ75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA75" s="1" t="b">
+      <c r="CZ75" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA75" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB75" t="b">
@@ -40223,10 +40237,10 @@
       <c r="BP76" t="b">
         <v>0</v>
       </c>
-      <c r="BQ76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR76" s="1" t="b">
+      <c r="BQ76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR76" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS76" t="b">
@@ -40328,10 +40342,10 @@
       <c r="CY76" t="b">
         <v>0</v>
       </c>
-      <c r="CZ76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA76" s="1" t="b">
+      <c r="CZ76" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA76" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB76" t="b">
@@ -40744,10 +40758,10 @@
       <c r="BP77" t="b">
         <v>0</v>
       </c>
-      <c r="BQ77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR77" s="1" t="b">
+      <c r="BQ77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR77" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS77" t="b">
@@ -40849,10 +40863,10 @@
       <c r="CY77" t="b">
         <v>0</v>
       </c>
-      <c r="CZ77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA77" s="1" t="b">
+      <c r="CZ77" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA77" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB77" t="b">
@@ -41265,10 +41279,10 @@
       <c r="BP78" t="b">
         <v>0</v>
       </c>
-      <c r="BQ78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR78" s="1" t="b">
+      <c r="BQ78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR78" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS78" t="b">
@@ -41370,10 +41384,10 @@
       <c r="CY78" t="b">
         <v>0</v>
       </c>
-      <c r="CZ78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA78" s="1" t="b">
+      <c r="CZ78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA78" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB78" t="b">
@@ -41786,10 +41800,10 @@
       <c r="BP79" t="b">
         <v>0</v>
       </c>
-      <c r="BQ79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR79" s="1" t="b">
+      <c r="BQ79" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR79" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS79" t="b">
@@ -41891,10 +41905,10 @@
       <c r="CY79" t="b">
         <v>0</v>
       </c>
-      <c r="CZ79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA79" s="1" t="b">
+      <c r="CZ79" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA79" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB79" t="b">
@@ -42307,10 +42321,10 @@
       <c r="BP80" t="b">
         <v>0</v>
       </c>
-      <c r="BQ80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR80" s="1" t="b">
+      <c r="BQ80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR80" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS80" t="b">
@@ -42412,10 +42426,10 @@
       <c r="CY80" t="b">
         <v>0</v>
       </c>
-      <c r="CZ80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA80" s="1" t="b">
+      <c r="CZ80" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA80" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB80" t="b">
@@ -42828,10 +42842,10 @@
       <c r="BP81" t="b">
         <v>0</v>
       </c>
-      <c r="BQ81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR81" s="1" t="b">
+      <c r="BQ81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR81" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS81" t="b">
@@ -42933,10 +42947,10 @@
       <c r="CY81" t="b">
         <v>0</v>
       </c>
-      <c r="CZ81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA81" s="1" t="b">
+      <c r="CZ81" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA81" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB81" t="b">
@@ -43349,10 +43363,10 @@
       <c r="BP82" t="b">
         <v>0</v>
       </c>
-      <c r="BQ82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR82" s="1" t="b">
+      <c r="BQ82" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS82" t="b">
@@ -43454,10 +43468,10 @@
       <c r="CY82" t="b">
         <v>0</v>
       </c>
-      <c r="CZ82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA82" s="1" t="b">
+      <c r="CZ82" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA82" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB82" t="b">
@@ -43870,10 +43884,10 @@
       <c r="BP83" t="b">
         <v>0</v>
       </c>
-      <c r="BQ83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR83" s="1" t="b">
+      <c r="BQ83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR83" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS83" t="b">
@@ -43975,10 +43989,10 @@
       <c r="CY83" t="b">
         <v>0</v>
       </c>
-      <c r="CZ83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA83" s="1" t="b">
+      <c r="CZ83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA83" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB83" t="b">
@@ -44391,10 +44405,10 @@
       <c r="BP84" t="b">
         <v>0</v>
       </c>
-      <c r="BQ84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR84" s="1" t="b">
+      <c r="BQ84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR84" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS84" t="b">
@@ -44496,10 +44510,10 @@
       <c r="CY84" t="b">
         <v>0</v>
       </c>
-      <c r="CZ84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA84" s="1" t="b">
+      <c r="CZ84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA84" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB84" t="b">
@@ -44912,10 +44926,10 @@
       <c r="BP85" t="b">
         <v>0</v>
       </c>
-      <c r="BQ85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR85" s="1" t="b">
+      <c r="BQ85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR85" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS85" t="b">
@@ -45017,10 +45031,10 @@
       <c r="CY85" t="b">
         <v>0</v>
       </c>
-      <c r="CZ85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA85" s="1" t="b">
+      <c r="CZ85" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA85" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB85" t="b">
@@ -45433,10 +45447,10 @@
       <c r="BP86" t="b">
         <v>0</v>
       </c>
-      <c r="BQ86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR86" s="1" t="b">
+      <c r="BQ86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR86" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS86" t="b">
@@ -45538,10 +45552,10 @@
       <c r="CY86" t="b">
         <v>0</v>
       </c>
-      <c r="CZ86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA86" s="1" t="b">
+      <c r="CZ86" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA86" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB86" t="b">
@@ -45954,10 +45968,10 @@
       <c r="BP87" t="b">
         <v>0</v>
       </c>
-      <c r="BQ87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR87" s="1" t="b">
+      <c r="BQ87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR87" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS87" t="b">
@@ -46059,10 +46073,10 @@
       <c r="CY87" t="b">
         <v>0</v>
       </c>
-      <c r="CZ87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA87" s="1" t="b">
+      <c r="CZ87" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA87" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB87" t="b">
@@ -46475,10 +46489,10 @@
       <c r="BP88" t="b">
         <v>0</v>
       </c>
-      <c r="BQ88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR88" s="1" t="b">
+      <c r="BQ88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR88" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS88" t="b">
@@ -46580,10 +46594,10 @@
       <c r="CY88" t="b">
         <v>0</v>
       </c>
-      <c r="CZ88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA88" s="1" t="b">
+      <c r="CZ88" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA88" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB88" t="b">
@@ -46996,10 +47010,10 @@
       <c r="BP89" t="b">
         <v>0</v>
       </c>
-      <c r="BQ89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR89" s="1" t="b">
+      <c r="BQ89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR89" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS89" t="b">
@@ -47101,10 +47115,10 @@
       <c r="CY89" t="b">
         <v>0</v>
       </c>
-      <c r="CZ89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA89" s="1" t="b">
+      <c r="CZ89" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA89" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB89" t="b">
@@ -47517,10 +47531,10 @@
       <c r="BP90" t="b">
         <v>0</v>
       </c>
-      <c r="BQ90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR90" s="1" t="b">
+      <c r="BQ90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR90" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS90" t="b">
@@ -47622,10 +47636,10 @@
       <c r="CY90" t="b">
         <v>0</v>
       </c>
-      <c r="CZ90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA90" s="1" t="b">
+      <c r="CZ90" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA90" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB90" t="b">
@@ -48038,10 +48052,10 @@
       <c r="BP91" t="b">
         <v>0</v>
       </c>
-      <c r="BQ91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR91" s="1" t="b">
+      <c r="BQ91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS91" t="b">
@@ -48143,10 +48157,10 @@
       <c r="CY91" t="b">
         <v>0</v>
       </c>
-      <c r="CZ91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA91" s="1" t="b">
+      <c r="CZ91" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA91" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB91" t="b">
@@ -48559,10 +48573,10 @@
       <c r="BP92" t="b">
         <v>0</v>
       </c>
-      <c r="BQ92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR92" s="1" t="b">
+      <c r="BQ92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR92" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS92" t="b">
@@ -48664,10 +48678,10 @@
       <c r="CY92" t="b">
         <v>0</v>
       </c>
-      <c r="CZ92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA92" s="1" t="b">
+      <c r="CZ92" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA92" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB92" t="b">
@@ -49080,10 +49094,10 @@
       <c r="BP93" t="b">
         <v>0</v>
       </c>
-      <c r="BQ93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR93" s="1" t="b">
+      <c r="BQ93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR93" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS93" t="b">
@@ -49185,10 +49199,10 @@
       <c r="CY93" t="b">
         <v>0</v>
       </c>
-      <c r="CZ93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA93" s="1" t="b">
+      <c r="CZ93" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA93" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB93" t="b">
@@ -49601,10 +49615,10 @@
       <c r="BP94" t="b">
         <v>0</v>
       </c>
-      <c r="BQ94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR94" s="1" t="b">
+      <c r="BQ94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR94" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS94" t="b">
@@ -49706,10 +49720,10 @@
       <c r="CY94" t="b">
         <v>0</v>
       </c>
-      <c r="CZ94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA94" s="1" t="b">
+      <c r="CZ94" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA94" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB94" t="b">
@@ -50122,10 +50136,10 @@
       <c r="BP95" t="b">
         <v>0</v>
       </c>
-      <c r="BQ95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR95" s="1" t="b">
+      <c r="BQ95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR95" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS95" t="b">
@@ -50227,10 +50241,10 @@
       <c r="CY95" t="b">
         <v>0</v>
       </c>
-      <c r="CZ95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA95" s="1" t="b">
+      <c r="CZ95" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA95" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB95" t="b">
@@ -50643,10 +50657,10 @@
       <c r="BP96" t="b">
         <v>0</v>
       </c>
-      <c r="BQ96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR96" s="1" t="b">
+      <c r="BQ96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR96" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS96" t="b">
@@ -50748,10 +50762,10 @@
       <c r="CY96" t="b">
         <v>0</v>
       </c>
-      <c r="CZ96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA96" s="1" t="b">
+      <c r="CZ96" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA96" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB96" t="b">
@@ -51164,10 +51178,10 @@
       <c r="BP97" t="b">
         <v>0</v>
       </c>
-      <c r="BQ97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR97" s="1" t="b">
+      <c r="BQ97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR97" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS97" t="b">
@@ -51269,10 +51283,10 @@
       <c r="CY97" t="b">
         <v>0</v>
       </c>
-      <c r="CZ97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA97" s="1" t="b">
+      <c r="CZ97" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA97" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB97" t="b">
@@ -51685,10 +51699,10 @@
       <c r="BP98" t="b">
         <v>0</v>
       </c>
-      <c r="BQ98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR98" s="1" t="b">
+      <c r="BQ98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR98" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS98" t="b">
@@ -51790,10 +51804,10 @@
       <c r="CY98" t="b">
         <v>0</v>
       </c>
-      <c r="CZ98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA98" s="1" t="b">
+      <c r="CZ98" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA98" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB98" t="b">
@@ -52206,10 +52220,10 @@
       <c r="BP99" t="b">
         <v>0</v>
       </c>
-      <c r="BQ99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR99" s="1" t="b">
+      <c r="BQ99" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR99" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS99" t="b">
@@ -52311,10 +52325,10 @@
       <c r="CY99" t="b">
         <v>0</v>
       </c>
-      <c r="CZ99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA99" s="1" t="b">
+      <c r="CZ99" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA99" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB99" t="b">
@@ -52727,10 +52741,10 @@
       <c r="BP100" t="b">
         <v>0</v>
       </c>
-      <c r="BQ100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR100" s="1" t="b">
+      <c r="BQ100" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR100" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS100" t="b">
@@ -52832,10 +52846,10 @@
       <c r="CY100" t="b">
         <v>0</v>
       </c>
-      <c r="CZ100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA100" s="1" t="b">
+      <c r="CZ100" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA100" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB100" t="b">
@@ -53248,10 +53262,10 @@
       <c r="BP101" t="b">
         <v>0</v>
       </c>
-      <c r="BQ101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR101" s="1" t="b">
+      <c r="BQ101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR101" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS101" t="b">
@@ -53353,10 +53367,10 @@
       <c r="CY101" t="b">
         <v>0</v>
       </c>
-      <c r="CZ101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA101" s="1" t="b">
+      <c r="CZ101" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA101" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB101" t="b">
@@ -53769,10 +53783,10 @@
       <c r="BP102" t="b">
         <v>0</v>
       </c>
-      <c r="BQ102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR102" s="1" t="b">
+      <c r="BQ102" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR102" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS102" t="b">
@@ -53874,10 +53888,10 @@
       <c r="CY102" t="b">
         <v>0</v>
       </c>
-      <c r="CZ102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA102" s="1" t="b">
+      <c r="CZ102" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA102" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DB102" t="b">
@@ -54290,10 +54304,10 @@
       <c r="BP103" t="b">
         <v>0</v>
       </c>
-      <c r="BQ103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR103" s="1" t="b">
+      <c r="BQ103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="BS103" t="b">
@@ -54712,101 +54726,101 @@
       <c r="AI104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AJ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO104" s="1" t="b">
-        <v>1</v>
+      <c r="AJ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO104" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="BP104" s="4" t="s">
         <v>1</v>
@@ -54922,104 +54936,104 @@
       <c r="DA104" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="DB104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DC104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DD104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DE104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DF104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DH104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DI104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DO104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DP104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DQ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DS104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DT104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DU104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DV104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DX104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DY104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EA104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EF104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EG104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EH104" s="1" t="b">
-        <v>1</v>
+      <c r="DB104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DR104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EH104" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="EI104" s="1" t="b">
         <v>1</v>
@@ -55233,101 +55247,101 @@
       <c r="AI105" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AJ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO105" s="1" t="b">
-        <v>1</v>
+      <c r="AJ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO105" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="BP105" s="4" t="s">
         <v>1</v>
@@ -55443,104 +55457,104 @@
       <c r="DA105" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="DB105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DC105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DD105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DE105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DF105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DH105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DI105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DO105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DP105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DQ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DS105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DT105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DU105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DV105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DX105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DY105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EA105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EF105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EG105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="EH105" s="1" t="b">
-        <v>1</v>
+      <c r="DB105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DR105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EH105" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="EI105" s="1" t="b">
         <v>1</v>
@@ -55853,10 +55867,10 @@
       <c r="BP106" t="b">
         <v>0</v>
       </c>
-      <c r="BQ106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR106" s="1" t="b">
+      <c r="BQ106" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR106" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS106" t="b">
@@ -56374,10 +56388,10 @@
       <c r="BP107" t="b">
         <v>0</v>
       </c>
-      <c r="BQ107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR107" s="1" t="b">
+      <c r="BQ107" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR107" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS107" t="b">
@@ -56479,10 +56493,10 @@
       <c r="CY107" t="b">
         <v>0</v>
       </c>
-      <c r="CZ107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA107" s="1" t="b">
+      <c r="CZ107" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA107" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB107" t="b">
@@ -56895,10 +56909,10 @@
       <c r="BP108" t="b">
         <v>0</v>
       </c>
-      <c r="BQ108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR108" s="1" t="b">
+      <c r="BQ108" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR108" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS108" t="b">
@@ -57000,10 +57014,10 @@
       <c r="CY108" t="b">
         <v>0</v>
       </c>
-      <c r="CZ108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA108" s="1" t="b">
+      <c r="CZ108" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA108" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB108" t="b">
@@ -57416,10 +57430,10 @@
       <c r="BP109" t="b">
         <v>0</v>
       </c>
-      <c r="BQ109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR109" s="1" t="b">
+      <c r="BQ109" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR109" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS109" t="b">
@@ -57521,10 +57535,10 @@
       <c r="CY109" t="b">
         <v>0</v>
       </c>
-      <c r="CZ109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA109" s="1" t="b">
+      <c r="CZ109" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA109" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB109" t="b">
@@ -57937,10 +57951,10 @@
       <c r="BP110" t="b">
         <v>0</v>
       </c>
-      <c r="BQ110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR110" s="1" t="b">
+      <c r="BQ110" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR110" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS110" t="b">
@@ -58042,10 +58056,10 @@
       <c r="CY110" t="b">
         <v>0</v>
       </c>
-      <c r="CZ110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA110" s="1" t="b">
+      <c r="CZ110" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA110" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB110" t="b">
@@ -58458,10 +58472,10 @@
       <c r="BP111" t="b">
         <v>0</v>
       </c>
-      <c r="BQ111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR111" s="1" t="b">
+      <c r="BQ111" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR111" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS111" t="b">
@@ -58563,10 +58577,10 @@
       <c r="CY111" t="b">
         <v>0</v>
       </c>
-      <c r="CZ111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA111" s="1" t="b">
+      <c r="CZ111" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB111" t="b">
@@ -58979,10 +58993,10 @@
       <c r="BP112" t="b">
         <v>0</v>
       </c>
-      <c r="BQ112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR112" s="1" t="b">
+      <c r="BQ112" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR112" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS112" t="b">
@@ -59084,10 +59098,10 @@
       <c r="CY112" t="b">
         <v>0</v>
       </c>
-      <c r="CZ112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA112" s="1" t="b">
+      <c r="CZ112" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA112" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB112" t="b">
@@ -59500,10 +59514,10 @@
       <c r="BP113" t="b">
         <v>0</v>
       </c>
-      <c r="BQ113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR113" s="1" t="b">
+      <c r="BQ113" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR113" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS113" t="b">
@@ -59605,10 +59619,10 @@
       <c r="CY113" t="b">
         <v>0</v>
       </c>
-      <c r="CZ113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA113" s="1" t="b">
+      <c r="CZ113" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA113" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB113" t="b">
@@ -60021,10 +60035,10 @@
       <c r="BP114" t="b">
         <v>0</v>
       </c>
-      <c r="BQ114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR114" s="1" t="b">
+      <c r="BQ114" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR114" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS114" t="b">
@@ -60126,10 +60140,10 @@
       <c r="CY114" t="b">
         <v>0</v>
       </c>
-      <c r="CZ114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA114" s="1" t="b">
+      <c r="CZ114" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB114" t="b">
@@ -60542,10 +60556,10 @@
       <c r="BP115" t="b">
         <v>0</v>
       </c>
-      <c r="BQ115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR115" s="1" t="b">
+      <c r="BQ115" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR115" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS115" t="b">
@@ -60647,10 +60661,10 @@
       <c r="CY115" t="b">
         <v>0</v>
       </c>
-      <c r="CZ115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA115" s="1" t="b">
+      <c r="CZ115" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB115" t="b">
@@ -61063,10 +61077,10 @@
       <c r="BP116" t="b">
         <v>0</v>
       </c>
-      <c r="BQ116" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR116" s="1" t="b">
+      <c r="BQ116" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR116" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS116" t="b">
@@ -61168,10 +61182,10 @@
       <c r="CY116" t="b">
         <v>0</v>
       </c>
-      <c r="CZ116" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA116" s="1" t="b">
+      <c r="CZ116" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA116" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB116" t="b">
@@ -61584,10 +61598,10 @@
       <c r="BP117" t="b">
         <v>0</v>
       </c>
-      <c r="BQ117" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR117" s="1" t="b">
+      <c r="BQ117" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR117" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS117" t="b">
@@ -61689,10 +61703,10 @@
       <c r="CY117" t="b">
         <v>0</v>
       </c>
-      <c r="CZ117" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA117" s="1" t="b">
+      <c r="CZ117" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA117" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB117" t="b">
@@ -62105,10 +62119,10 @@
       <c r="BP118" t="b">
         <v>0</v>
       </c>
-      <c r="BQ118" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR118" s="1" t="b">
+      <c r="BQ118" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR118" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS118" t="b">
@@ -62210,10 +62224,10 @@
       <c r="CY118" t="b">
         <v>0</v>
       </c>
-      <c r="CZ118" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA118" s="1" t="b">
+      <c r="CZ118" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB118" t="b">
@@ -62626,10 +62640,10 @@
       <c r="BP119" t="b">
         <v>0</v>
       </c>
-      <c r="BQ119" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR119" s="1" t="b">
+      <c r="BQ119" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR119" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS119" t="b">
@@ -62731,10 +62745,10 @@
       <c r="CY119" t="b">
         <v>0</v>
       </c>
-      <c r="CZ119" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA119" s="1" t="b">
+      <c r="CZ119" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA119" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB119" t="b">
@@ -63147,10 +63161,10 @@
       <c r="BP120" t="b">
         <v>0</v>
       </c>
-      <c r="BQ120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR120" s="1" t="b">
+      <c r="BQ120" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR120" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS120" t="b">
@@ -63252,10 +63266,10 @@
       <c r="CY120" t="b">
         <v>0</v>
       </c>
-      <c r="CZ120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA120" s="1" t="b">
+      <c r="CZ120" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB120" t="b">
@@ -63668,10 +63682,10 @@
       <c r="BP121" t="b">
         <v>0</v>
       </c>
-      <c r="BQ121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR121" s="1" t="b">
+      <c r="BQ121" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR121" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS121" t="b">
@@ -63773,10 +63787,10 @@
       <c r="CY121" t="b">
         <v>0</v>
       </c>
-      <c r="CZ121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA121" s="1" t="b">
+      <c r="CZ121" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA121" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB121" t="b">
@@ -64189,10 +64203,10 @@
       <c r="BP122" t="b">
         <v>0</v>
       </c>
-      <c r="BQ122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR122" s="1" t="b">
+      <c r="BQ122" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR122" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS122" t="b">
@@ -64294,10 +64308,10 @@
       <c r="CY122" t="b">
         <v>0</v>
       </c>
-      <c r="CZ122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA122" s="1" t="b">
+      <c r="CZ122" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA122" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB122" t="b">
@@ -64710,10 +64724,10 @@
       <c r="BP123" t="b">
         <v>0</v>
       </c>
-      <c r="BQ123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR123" s="1" t="b">
+      <c r="BQ123" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR123" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS123" t="b">
@@ -64815,10 +64829,10 @@
       <c r="CY123" t="b">
         <v>0</v>
       </c>
-      <c r="CZ123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA123" s="1" t="b">
+      <c r="CZ123" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB123" t="b">
@@ -65231,10 +65245,10 @@
       <c r="BP124" t="b">
         <v>0</v>
       </c>
-      <c r="BQ124" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR124" s="1" t="b">
+      <c r="BQ124" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR124" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS124" t="b">
@@ -65336,10 +65350,10 @@
       <c r="CY124" t="b">
         <v>0</v>
       </c>
-      <c r="CZ124" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA124" s="1" t="b">
+      <c r="CZ124" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA124" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB124" t="b">
@@ -65752,10 +65766,10 @@
       <c r="BP125" t="b">
         <v>0</v>
       </c>
-      <c r="BQ125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR125" s="1" t="b">
+      <c r="BQ125" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR125" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS125" t="b">
@@ -65857,10 +65871,10 @@
       <c r="CY125" t="b">
         <v>0</v>
       </c>
-      <c r="CZ125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA125" s="1" t="b">
+      <c r="CZ125" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA125" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB125" t="b">
@@ -66273,10 +66287,10 @@
       <c r="BP126" t="b">
         <v>0</v>
       </c>
-      <c r="BQ126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR126" s="1" t="b">
+      <c r="BQ126" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR126" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS126" t="b">
@@ -66378,10 +66392,10 @@
       <c r="CY126" t="b">
         <v>0</v>
       </c>
-      <c r="CZ126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA126" s="1" t="b">
+      <c r="CZ126" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA126" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB126" t="b">
@@ -66794,10 +66808,10 @@
       <c r="BP127" t="b">
         <v>0</v>
       </c>
-      <c r="BQ127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR127" s="1" t="b">
+      <c r="BQ127" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR127" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS127" t="b">
@@ -66899,10 +66913,10 @@
       <c r="CY127" t="b">
         <v>0</v>
       </c>
-      <c r="CZ127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA127" s="1" t="b">
+      <c r="CZ127" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA127" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB127" t="b">
@@ -67315,10 +67329,10 @@
       <c r="BP128" t="b">
         <v>0</v>
       </c>
-      <c r="BQ128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR128" s="1" t="b">
+      <c r="BQ128" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR128" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS128" t="b">
@@ -67420,10 +67434,10 @@
       <c r="CY128" t="b">
         <v>0</v>
       </c>
-      <c r="CZ128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA128" s="1" t="b">
+      <c r="CZ128" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB128" t="b">
@@ -67836,10 +67850,10 @@
       <c r="BP129" t="b">
         <v>0</v>
       </c>
-      <c r="BQ129" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR129" s="1" t="b">
+      <c r="BQ129" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR129" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS129" t="b">
@@ -67941,10 +67955,10 @@
       <c r="CY129" t="b">
         <v>0</v>
       </c>
-      <c r="CZ129" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA129" s="1" t="b">
+      <c r="CZ129" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB129" t="b">
@@ -68357,10 +68371,10 @@
       <c r="BP130" t="b">
         <v>0</v>
       </c>
-      <c r="BQ130" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR130" s="1" t="b">
+      <c r="BQ130" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR130" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS130" t="b">
@@ -68462,10 +68476,10 @@
       <c r="CY130" t="b">
         <v>0</v>
       </c>
-      <c r="CZ130" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA130" s="1" t="b">
+      <c r="CZ130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB130" t="b">
@@ -68878,10 +68892,10 @@
       <c r="BP131" t="b">
         <v>0</v>
       </c>
-      <c r="BQ131" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR131" s="1" t="b">
+      <c r="BQ131" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR131" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS131" t="b">
@@ -68983,10 +68997,10 @@
       <c r="CY131" t="b">
         <v>0</v>
       </c>
-      <c r="CZ131" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA131" s="1" t="b">
+      <c r="CZ131" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB131" t="b">
@@ -69399,10 +69413,10 @@
       <c r="BP132" t="b">
         <v>0</v>
       </c>
-      <c r="BQ132" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR132" s="1" t="b">
+      <c r="BQ132" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR132" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS132" t="b">
@@ -69504,10 +69518,10 @@
       <c r="CY132" t="b">
         <v>0</v>
       </c>
-      <c r="CZ132" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA132" s="1" t="b">
+      <c r="CZ132" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA132" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB132" t="b">
@@ -69920,10 +69934,10 @@
       <c r="BP133" t="b">
         <v>0</v>
       </c>
-      <c r="BQ133" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR133" s="1" t="b">
+      <c r="BQ133" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR133" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS133" t="b">
@@ -70025,10 +70039,10 @@
       <c r="CY133" t="b">
         <v>0</v>
       </c>
-      <c r="CZ133" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA133" s="1" t="b">
+      <c r="CZ133" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA133" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB133" t="b">
@@ -70441,10 +70455,10 @@
       <c r="BP134" t="b">
         <v>0</v>
       </c>
-      <c r="BQ134" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR134" s="1" t="b">
+      <c r="BQ134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR134" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS134" t="b">
@@ -70546,10 +70560,10 @@
       <c r="CY134" t="b">
         <v>0</v>
       </c>
-      <c r="CZ134" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA134" s="1" t="b">
+      <c r="CZ134" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA134" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB134" t="b">
@@ -70962,10 +70976,10 @@
       <c r="BP135" t="b">
         <v>0</v>
       </c>
-      <c r="BQ135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR135" s="1" t="b">
+      <c r="BQ135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR135" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS135" t="b">
@@ -71067,10 +71081,10 @@
       <c r="CY135" t="b">
         <v>0</v>
       </c>
-      <c r="CZ135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA135" s="1" t="b">
+      <c r="CZ135" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA135" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB135" t="b">
@@ -71483,10 +71497,10 @@
       <c r="BP136" t="b">
         <v>0</v>
       </c>
-      <c r="BQ136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR136" s="1" t="b">
+      <c r="BQ136" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR136" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS136" t="b">
@@ -71588,10 +71602,10 @@
       <c r="CY136" t="b">
         <v>0</v>
       </c>
-      <c r="CZ136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA136" s="1" t="b">
+      <c r="CZ136" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA136" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB136" t="b">
@@ -72004,10 +72018,10 @@
       <c r="BP137" t="b">
         <v>0</v>
       </c>
-      <c r="BQ137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR137" s="1" t="b">
+      <c r="BQ137" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR137" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS137" t="b">
@@ -72109,10 +72123,10 @@
       <c r="CY137" t="b">
         <v>0</v>
       </c>
-      <c r="CZ137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA137" s="1" t="b">
+      <c r="CZ137" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA137" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB137" t="b">
@@ -72525,10 +72539,10 @@
       <c r="BP138" t="b">
         <v>0</v>
       </c>
-      <c r="BQ138" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR138" s="1" t="b">
+      <c r="BQ138" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR138" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BS138" t="b">
@@ -72630,10 +72644,10 @@
       <c r="CY138" t="b">
         <v>0</v>
       </c>
-      <c r="CZ138" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA138" s="1" t="b">
+      <c r="CZ138" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DA138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="DB138" t="b">
